--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_0_14.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_0_14.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>619521.1884927362</v>
+        <v>646868.4207897208</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>925399.3994514379</v>
+        <v>925399.3994514378</v>
       </c>
     </row>
     <row r="8">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -701,7 +701,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -713,16 +713,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W2" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>241.0142888776591</v>
@@ -738,7 +738,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -759,7 +759,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -789,16 +789,16 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>131.3980055647953</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>183.8842973311964</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -835,13 +835,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>17.55829564281241</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -856,13 +856,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -938,16 +938,16 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>114.9581870864144</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -972,16 +972,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1020,28 +1020,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>19.15541836171551</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>110.1497834296626</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>110.9174757594852</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1078,7 +1078,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1093,7 +1093,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,76 +1130,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F8" t="n">
-        <v>220.8837963815379</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H8" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I8" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J8" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1215,13 +1215,13 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>121.2086027464166</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>121.4199051967541</v>
       </c>
       <c r="G9" t="n">
         <v>137.3435171632106</v>
@@ -1230,7 +1230,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -1260,10 +1260,10 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1275,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1303,19 +1303,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>17.55829564281241</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1367,73 +1367,73 @@
         </is>
       </c>
       <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W11" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>241.0142888776591</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="Y11" t="n">
         <v>241.0142888776591</v>
@@ -1449,28 +1449,28 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>124.3991006813875</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>62.88143347497287</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1494,16 +1494,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -1570,10 +1570,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1591,7 +1591,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1610,19 +1610,19 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1649,7 +1649,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -1658,16 +1658,16 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1689,22 +1689,22 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1734,16 +1734,16 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>170.2465472495006</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>113.3209940643362</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -1783,13 +1783,13 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>22.0339917726843</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1856,58 +1856,58 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R17" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U17" t="n">
+        <v>70.34400780127524</v>
+      </c>
+      <c r="V17" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X17" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1923,25 +1923,25 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>45.28887413297245</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -1971,19 +1971,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>3.833957768458675</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2056,16 +2056,16 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0</v>
-      </c>
-      <c r="W19" t="n">
-        <v>0</v>
-      </c>
-      <c r="X19" t="n">
-        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2093,16 +2093,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H20" t="n">
-        <v>7.778646031951277</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -2126,25 +2126,25 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>1.809496073036132</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2160,7 +2160,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2178,10 +2178,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>30.86155971440646</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2205,13 +2205,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>125.2226902263468</v>
       </c>
       <c r="U21" t="n">
         <v>225.9413820809748</v>
@@ -2226,7 +2226,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -2239,7 +2239,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2293,7 +2293,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2324,22 +2324,22 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>200.3360962888296</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2360,7 +2360,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -2372,7 +2372,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2394,7 +2394,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -2403,13 +2403,13 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>47.80876671705462</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2445,22 +2445,22 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>179.893889941384</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2515,10 +2515,10 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -2527,10 +2527,10 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2555,73 +2555,73 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>202.2946864288972</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="Y26" t="n">
-        <v>212.2853856434421</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="27">
@@ -2631,22 +2631,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>29.79900896488263</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2655,7 +2655,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2682,25 +2682,25 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>160.3321957367746</v>
       </c>
     </row>
     <row r="28">
@@ -2719,7 +2719,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2770,7 +2770,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2801,55 +2801,55 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="U29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
+      <c r="V29" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>202.2946864288972</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2871,7 +2871,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
@@ -2880,7 +2880,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -2916,10 +2916,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>157.8643926765646</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -2937,7 +2937,7 @@
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>145.9272112248127</v>
       </c>
     </row>
     <row r="31">
@@ -3001,7 +3001,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3010,7 +3010,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3029,19 +3029,19 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3080,19 +3080,19 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3111,13 +3111,13 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3153,25 +3153,25 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>24.34352913342217</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>35.40726547353833</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -3229,7 +3229,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -3238,7 +3238,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3253,7 +3253,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
     </row>
     <row r="35">
@@ -3269,7 +3269,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -3284,10 +3284,10 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>1.809496073036188</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3326,10 +3326,10 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="X35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3342,7 +3342,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>110.5330953175585</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
@@ -3351,10 +3351,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3393,7 +3393,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -3402,7 +3402,7 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -3411,7 +3411,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>45.02278574591163</v>
       </c>
     </row>
     <row r="37">
@@ -3487,10 +3487,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="Y37" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3509,19 +3509,19 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I38" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3554,16 +3554,16 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>1.809496073036132</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>241.0142888776591</v>
+        <v>212.285385643442</v>
       </c>
       <c r="V38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3579,7 +3579,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>50.05769526855308</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -3627,16 +3627,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>35.40726547353833</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -3645,10 +3645,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -3715,19 +3715,19 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
+        <v>0</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="n">
+        <v>0</v>
+      </c>
+      <c r="X40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V40" t="n">
-        <v>0</v>
-      </c>
-      <c r="W40" t="n">
-        <v>0</v>
-      </c>
-      <c r="X40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y40" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3740,7 +3740,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3749,13 +3749,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3797,10 +3797,10 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="W41" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="W41" t="n">
-        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3816,28 +3816,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>90.76656459084921</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0.7465913262578567</v>
@@ -3864,13 +3864,13 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -3879,13 +3879,13 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>1.197928092376154</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -3904,55 +3904,55 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="F43" t="n">
-        <v>0</v>
-      </c>
-      <c r="G43" t="n">
-        <v>0</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0</v>
-      </c>
-      <c r="R43" t="n">
-        <v>0</v>
-      </c>
-      <c r="S43" t="n">
-        <v>0</v>
-      </c>
-      <c r="T43" t="n">
-        <v>0</v>
-      </c>
-      <c r="U43" t="n">
-        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3989,7 +3989,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3998,7 +3998,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>11.19305615617957</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4019,13 +4019,13 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>223.0958495641314</v>
@@ -4034,10 +4034,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>230.2038249569697</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4059,25 +4059,25 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>82.69355372315668</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4101,28 +4101,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>51.3162985621293</v>
       </c>
       <c r="W45" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4349,31 +4349,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U2" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V2" t="n">
-        <v>953.9655401424092</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W2" t="n">
-        <v>710.516763498309</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X2" t="n">
-        <v>467.067986854209</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y2" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="3">
@@ -4383,28 +4383,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>194.4883050441255</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
@@ -4413,13 +4413,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>234.810827406191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M3" t="n">
-        <v>234.810827406191</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N3" t="n">
-        <v>473.4149733950735</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O3" t="n">
         <v>712.019119383956</v>
@@ -4437,22 +4437,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>964.0571555106362</v>
+        <v>831.3318973643784</v>
       </c>
       <c r="U3" t="n">
-        <v>964.0571555106362</v>
+        <v>603.1082791007675</v>
       </c>
       <c r="V3" t="n">
-        <v>964.0571555106362</v>
+        <v>603.1082791007675</v>
       </c>
       <c r="W3" t="n">
-        <v>778.3154410346802</v>
+        <v>603.1082791007675</v>
       </c>
       <c r="X3" t="n">
-        <v>570.4639408291474</v>
+        <v>395.2567788952347</v>
       </c>
       <c r="Y3" t="n">
-        <v>362.7036420641935</v>
+        <v>187.4964801302808</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I4" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4504,34 +4504,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="C5" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="D5" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="E5" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="F5" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="G5" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H5" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I5" t="n">
         <v>19.28114311021272</v>
@@ -4586,31 +4586,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T5" t="n">
-        <v>964.0571555106362</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="U5" t="n">
-        <v>964.0571555106362</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="V5" t="n">
-        <v>964.0571555106362</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="W5" t="n">
-        <v>749.627473042513</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="X5" t="n">
-        <v>506.1786963984129</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="Y5" t="n">
-        <v>262.7299197543128</v>
+        <v>475.3318284112885</v>
       </c>
     </row>
     <row r="6">
@@ -4620,13 +4620,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>193.7341723913397</v>
+        <v>501.9060370580465</v>
       </c>
       <c r="C6" t="n">
-        <v>19.28114311021272</v>
+        <v>327.4530077769195</v>
       </c>
       <c r="D6" t="n">
-        <v>19.28114311021272</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E6" t="n">
         <v>19.28114311021272</v>
@@ -4653,43 +4653,43 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N6" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O6" t="n">
-        <v>781.4136778972854</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="P6" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T6" t="n">
-        <v>964.0571555106362</v>
+        <v>670.1213740781145</v>
       </c>
       <c r="U6" t="n">
-        <v>964.0571555106362</v>
+        <v>670.1213740781145</v>
       </c>
       <c r="V6" t="n">
-        <v>852.7947480059265</v>
+        <v>670.1213740781145</v>
       </c>
       <c r="W6" t="n">
-        <v>609.3459713618265</v>
+        <v>670.1213740781145</v>
       </c>
       <c r="X6" t="n">
-        <v>401.4944711562937</v>
+        <v>670.1213740781145</v>
       </c>
       <c r="Y6" t="n">
-        <v>193.7341723913397</v>
+        <v>670.1213740781145</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4741,34 +4741,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>953.9655401424092</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C8" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D8" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E8" t="n">
-        <v>953.9655401424092</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F8" t="n">
-        <v>730.8505943024719</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G8" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H8" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4823,31 +4823,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R8" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S8" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T8" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U8" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V8" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W8" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X8" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y8" t="n">
-        <v>953.9655401424092</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>790.6398109613051</v>
+        <v>554.0190606638694</v>
       </c>
       <c r="C9" t="n">
-        <v>790.6398109613051</v>
+        <v>554.0190606638694</v>
       </c>
       <c r="D9" t="n">
-        <v>668.2068788942177</v>
+        <v>554.0190606638694</v>
       </c>
       <c r="E9" t="n">
-        <v>508.9694238887622</v>
+        <v>394.7816056584139</v>
       </c>
       <c r="F9" t="n">
-        <v>362.4348659156472</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="G9" t="n">
-        <v>223.7040404982626</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H9" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I9" t="n">
         <v>20.03527576299844</v>
@@ -4884,22 +4884,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M9" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N9" t="n">
-        <v>851.8101010141643</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O9" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
@@ -4908,25 +4908,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>790.6398109613051</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U9" t="n">
-        <v>790.6398109613051</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V9" t="n">
-        <v>790.6398109613051</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="W9" t="n">
-        <v>790.6398109613051</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="X9" t="n">
-        <v>790.6398109613051</v>
+        <v>554.0190606638694</v>
       </c>
       <c r="Y9" t="n">
-        <v>790.6398109613051</v>
+        <v>554.0190606638694</v>
       </c>
     </row>
     <row r="10">
@@ -4951,16 +4951,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="G10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I10" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -5039,7 +5039,7 @@
         <v>19.28114311021272</v>
       </c>
       <c r="J11" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021275</v>
       </c>
       <c r="K11" t="n">
         <v>122.2961490211351</v>
@@ -5072,19 +5072,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U11" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V11" t="n">
-        <v>964.0571555106362</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="W11" t="n">
-        <v>749.627473042513</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="X11" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y11" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>259.0600686093459</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C12" t="n">
-        <v>259.0600686093459</v>
+        <v>789.6041262295092</v>
       </c>
       <c r="D12" t="n">
-        <v>259.0600686093459</v>
+        <v>640.669716568258</v>
       </c>
       <c r="E12" t="n">
-        <v>259.0600686093459</v>
+        <v>481.4322615628025</v>
       </c>
       <c r="F12" t="n">
-        <v>259.0600686093459</v>
+        <v>334.8977035896875</v>
       </c>
       <c r="G12" t="n">
-        <v>133.4044113554191</v>
+        <v>196.166878172303</v>
       </c>
       <c r="H12" t="n">
-        <v>20.03527576299844</v>
+        <v>82.7977425798823</v>
       </c>
       <c r="I12" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J12" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L12" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M12" t="n">
-        <v>374.6018090363993</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N12" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O12" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P12" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q12" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R12" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S12" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T12" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U12" t="n">
-        <v>259.0600686093459</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V12" t="n">
-        <v>259.0600686093459</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W12" t="n">
-        <v>259.0600686093459</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X12" t="n">
-        <v>259.0600686093459</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y12" t="n">
-        <v>259.0600686093459</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="13">
@@ -5218,25 +5218,25 @@
         <v>151.0645035650224</v>
       </c>
       <c r="Q13" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R13" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S13" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T13" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U13" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V13" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W13" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X13" t="n">
         <v>19.28114311021272</v>
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>19.28114311021272</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="C14" t="n">
-        <v>19.28114311021272</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="D14" t="n">
-        <v>19.28114311021272</v>
+        <v>710.516763498309</v>
       </c>
       <c r="E14" t="n">
-        <v>19.28114311021272</v>
+        <v>467.067986854209</v>
       </c>
       <c r="F14" t="n">
-        <v>19.28114311021272</v>
+        <v>467.067986854209</v>
       </c>
       <c r="G14" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H14" t="n">
         <v>19.28114311021272</v>
@@ -5297,31 +5297,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q14" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R14" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S14" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T14" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U14" t="n">
-        <v>506.1786963984129</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V14" t="n">
-        <v>262.7299197543128</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W14" t="n">
-        <v>19.28114311021272</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X14" t="n">
-        <v>19.28114311021272</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y14" t="n">
-        <v>19.28114311021272</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="15">
@@ -5331,25 +5331,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>361.6807332628614</v>
+        <v>473.9875657500345</v>
       </c>
       <c r="C15" t="n">
-        <v>361.6807332628614</v>
+        <v>473.9875657500345</v>
       </c>
       <c r="D15" t="n">
-        <v>361.6807332628614</v>
+        <v>325.0531560887832</v>
       </c>
       <c r="E15" t="n">
-        <v>361.6807332628614</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F15" t="n">
-        <v>361.6807332628614</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G15" t="n">
-        <v>222.9499078454769</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H15" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I15" t="n">
         <v>19.28114311021272</v>
@@ -5364,16 +5364,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M15" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N15" t="n">
-        <v>781.4136778972854</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O15" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P15" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q15" t="n">
         <v>964.0571555106362</v>
@@ -5382,25 +5382,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S15" t="n">
-        <v>792.0909461677063</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T15" t="n">
-        <v>589.9043515264723</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U15" t="n">
-        <v>361.6807332628614</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V15" t="n">
-        <v>361.6807332628614</v>
+        <v>473.9875657500345</v>
       </c>
       <c r="W15" t="n">
-        <v>361.6807332628614</v>
+        <v>473.9875657500345</v>
       </c>
       <c r="X15" t="n">
-        <v>361.6807332628614</v>
+        <v>473.9875657500345</v>
       </c>
       <c r="Y15" t="n">
-        <v>361.6807332628614</v>
+        <v>473.9875657500345</v>
       </c>
     </row>
     <row r="16">
@@ -5410,31 +5410,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C16" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D16" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E16" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F16" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G16" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H16" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K16" t="n">
         <v>19.28114311021272</v>
@@ -5458,28 +5458,28 @@
         <v>64.03213664411894</v>
       </c>
       <c r="R16" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S16" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T16" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U16" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V16" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W16" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X16" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y16" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C17" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D17" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E17" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F17" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G17" t="n">
         <v>19.28114311021272</v>
@@ -5534,31 +5534,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S17" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T17" t="n">
-        <v>964.0571555106362</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U17" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V17" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W17" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X17" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y17" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="18">
@@ -5568,25 +5568,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>20.03527576299844</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="C18" t="n">
-        <v>20.03527576299844</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D18" t="n">
-        <v>20.03527576299844</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E18" t="n">
-        <v>20.03527576299844</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F18" t="n">
-        <v>20.03527576299844</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G18" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H18" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I18" t="n">
         <v>20.03527576299844</v>
@@ -5595,22 +5595,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L18" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M18" t="n">
-        <v>613.2059550252818</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N18" t="n">
-        <v>725.4530095217538</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O18" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P18" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
@@ -5619,25 +5619,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S18" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T18" t="n">
-        <v>487.2836868729568</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U18" t="n">
-        <v>259.0600686093459</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V18" t="n">
-        <v>23.90796037760316</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W18" t="n">
-        <v>20.03527576299844</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X18" t="n">
-        <v>20.03527576299844</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y18" t="n">
-        <v>20.03527576299844</v>
+        <v>862.8876260635219</v>
       </c>
     </row>
     <row r="19">
@@ -5704,13 +5704,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X19" t="n">
         <v>19.28114311021272</v>
@@ -5726,28 +5726,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>251.810259228364</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="C20" t="n">
-        <v>251.810259228364</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="D20" t="n">
-        <v>251.810259228364</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="E20" t="n">
-        <v>251.810259228364</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="F20" t="n">
-        <v>251.810259228364</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="G20" t="n">
-        <v>251.810259228364</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H20" t="n">
-        <v>243.9530410142718</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I20" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J20" t="n">
         <v>19.28114311021272</v>
@@ -5774,28 +5774,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>964.0571555106362</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="S20" t="n">
-        <v>964.0571555106362</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="T20" t="n">
-        <v>738.7078125165641</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="U20" t="n">
-        <v>738.7078125165641</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="V20" t="n">
-        <v>495.259035872464</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="W20" t="n">
-        <v>495.259035872464</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="X20" t="n">
-        <v>251.810259228364</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="Y20" t="n">
-        <v>251.810259228364</v>
+        <v>962.2293816994886</v>
       </c>
     </row>
     <row r="21">
@@ -5805,40 +5805,40 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>51.20856840381305</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C21" t="n">
-        <v>51.20856840381305</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D21" t="n">
-        <v>51.20856840381305</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E21" t="n">
-        <v>51.20856840381305</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F21" t="n">
-        <v>51.20856840381305</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G21" t="n">
-        <v>51.20856840381305</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H21" t="n">
-        <v>51.20856840381305</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M21" t="n">
-        <v>374.6018090363993</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N21" t="n">
         <v>473.4149733950735</v>
@@ -5853,28 +5853,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>487.2836868729568</v>
+        <v>837.5695896254374</v>
       </c>
       <c r="U21" t="n">
-        <v>259.0600686093459</v>
+        <v>609.3459713618265</v>
       </c>
       <c r="V21" t="n">
-        <v>259.0600686093459</v>
+        <v>609.3459713618265</v>
       </c>
       <c r="W21" t="n">
-        <v>259.0600686093459</v>
+        <v>609.3459713618265</v>
       </c>
       <c r="X21" t="n">
-        <v>51.20856840381305</v>
+        <v>401.4944711562937</v>
       </c>
       <c r="Y21" t="n">
-        <v>51.20856840381305</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="22">
@@ -5884,7 +5884,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C22" t="n">
         <v>19.28114311021272</v>
@@ -5941,19 +5941,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="23">
@@ -5963,28 +5963,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>749.627473042513</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C23" t="n">
-        <v>749.627473042513</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D23" t="n">
-        <v>749.627473042513</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="E23" t="n">
-        <v>506.1786963984129</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="F23" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="G23" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="H23" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="I23" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J23" t="n">
         <v>19.28114311021272</v>
@@ -6008,31 +6008,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U23" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V23" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W23" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X23" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y23" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="24">
@@ -6042,19 +6042,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>352.8382100532927</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="C24" t="n">
-        <v>352.8382100532927</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="D24" t="n">
-        <v>352.8382100532927</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E24" t="n">
-        <v>304.5465265007123</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F24" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G24" t="n">
         <v>19.28114311021272</v>
@@ -6069,16 +6069,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>74.24228005117135</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
         <v>542.809531908403</v>
       </c>
       <c r="N24" t="n">
-        <v>781.4136778972854</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O24" t="n">
         <v>781.4136778972854</v>
@@ -6093,25 +6093,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T24" t="n">
-        <v>964.0571555106362</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U24" t="n">
-        <v>964.0571555106362</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V24" t="n">
-        <v>728.9050472788936</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="W24" t="n">
-        <v>728.9050472788936</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="X24" t="n">
-        <v>521.0535470733607</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="Y24" t="n">
-        <v>521.0535470733607</v>
+        <v>178.5185981156682</v>
       </c>
     </row>
     <row r="25">
@@ -6163,19 +6163,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>151.0645035650224</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R25" t="n">
-        <v>151.0645035650224</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S25" t="n">
-        <v>151.0645035650224</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="T25" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="U25" t="n">
         <v>19.28114311021272</v>
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>506.1786963984129</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="C26" t="n">
-        <v>262.7299197543128</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="D26" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E26" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F26" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G26" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H26" t="n">
         <v>19.28114311021272</v>
@@ -6245,31 +6245,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W26" t="n">
-        <v>964.0571555106362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X26" t="n">
-        <v>720.6083788665362</v>
+        <v>467.067986854209</v>
       </c>
       <c r="Y26" t="n">
-        <v>506.1786963984129</v>
+        <v>223.6192102101089</v>
       </c>
     </row>
     <row r="27">
@@ -6279,46 +6279,46 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>19.28114311021272</v>
+        <v>628.6880980958762</v>
       </c>
       <c r="C27" t="n">
-        <v>19.28114311021272</v>
+        <v>454.2350688147492</v>
       </c>
       <c r="D27" t="n">
-        <v>19.28114311021272</v>
+        <v>305.3006591534979</v>
       </c>
       <c r="E27" t="n">
-        <v>19.28114311021272</v>
+        <v>305.3006591534979</v>
       </c>
       <c r="F27" t="n">
-        <v>19.28114311021272</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="G27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>417.4543050195419</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N27" t="n">
-        <v>656.0584510084244</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O27" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P27" t="n">
         <v>894.6625969973069</v>
@@ -6330,25 +6330,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T27" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U27" t="n">
-        <v>735.8335372470253</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V27" t="n">
-        <v>500.6814290152826</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W27" t="n">
-        <v>257.2326523711826</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="X27" t="n">
-        <v>49.38115216564972</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="Y27" t="n">
-        <v>49.38115216564972</v>
+        <v>628.6880980958762</v>
       </c>
     </row>
     <row r="28">
@@ -6358,13 +6358,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C28" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D28" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E28" t="n">
         <v>829.5248650203655</v>
@@ -6418,16 +6418,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V28" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W28" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X28" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y28" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C29" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D29" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E29" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F29" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G29" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H29" t="n">
         <v>19.28114311021272</v>
@@ -6482,31 +6482,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T29" t="n">
         <v>749.627473042513</v>
       </c>
       <c r="U29" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V29" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W29" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X29" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y29" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="30">
@@ -6516,16 +6516,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>327.4530077769195</v>
+        <v>648.4405950311615</v>
       </c>
       <c r="C30" t="n">
-        <v>327.4530077769195</v>
+        <v>473.9875657500345</v>
       </c>
       <c r="D30" t="n">
-        <v>178.5185981156682</v>
+        <v>325.0531560887832</v>
       </c>
       <c r="E30" t="n">
-        <v>19.28114311021272</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F30" t="n">
         <v>19.28114311021272</v>
@@ -6543,49 +6543,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2442489785619</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M30" t="n">
-        <v>487.8483949674443</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N30" t="n">
-        <v>542.809531908403</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O30" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P30" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>703.4286435619415</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>703.4286435619415</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U30" t="n">
-        <v>703.4286435619415</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V30" t="n">
-        <v>703.4286435619415</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W30" t="n">
-        <v>703.4286435619415</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X30" t="n">
-        <v>703.4286435619415</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y30" t="n">
-        <v>495.6683447969875</v>
+        <v>816.6559320512295</v>
       </c>
     </row>
     <row r="31">
@@ -6649,13 +6649,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W31" t="n">
         <v>19.28114311021272</v>
@@ -6674,19 +6674,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C32" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
       <c r="D32" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
       <c r="E32" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G32" t="n">
         <v>19.28114311021272</v>
@@ -6728,22 +6728,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T32" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U32" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V32" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W32" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X32" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y32" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="33">
@@ -6753,16 +6753,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>314.750110744579</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C33" t="n">
-        <v>314.750110744579</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D33" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E33" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F33" t="n">
         <v>19.28114311021272</v>
@@ -6780,16 +6780,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M33" t="n">
-        <v>374.6018090363993</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N33" t="n">
-        <v>542.809531908403</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O33" t="n">
         <v>781.4136778972854</v>
@@ -6801,28 +6801,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>939.4677321435431</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>766.050387594212</v>
+        <v>928.2922408909005</v>
       </c>
       <c r="T33" t="n">
-        <v>766.050387594212</v>
+        <v>726.1056462496665</v>
       </c>
       <c r="U33" t="n">
-        <v>766.050387594212</v>
+        <v>497.8820279860555</v>
       </c>
       <c r="V33" t="n">
-        <v>766.050387594212</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W33" t="n">
-        <v>522.6016109501119</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X33" t="n">
-        <v>314.750110744579</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y33" t="n">
-        <v>314.750110744579</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L34" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M34" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N34" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q34" t="n">
-        <v>66.78106667958005</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R34" t="n">
-        <v>66.78106667958005</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S34" t="n">
-        <v>66.78106667958005</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="35">
@@ -6911,28 +6911,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C35" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D35" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E35" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F35" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G35" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H35" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I35" t="n">
-        <v>21.10891692136039</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J35" t="n">
         <v>19.28114311021272</v>
@@ -6974,13 +6974,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W35" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X35" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y35" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="36">
@@ -6990,28 +6990,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>342.668582052591</v>
+        <v>649.1947276839472</v>
       </c>
       <c r="C36" t="n">
-        <v>168.215552771464</v>
+        <v>474.7416984028202</v>
       </c>
       <c r="D36" t="n">
-        <v>19.28114311021272</v>
+        <v>325.807288741569</v>
       </c>
       <c r="E36" t="n">
-        <v>19.28114311021272</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="F36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
@@ -7020,19 +7020,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M36" t="n">
-        <v>487.8483949674443</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N36" t="n">
-        <v>726.4525409563269</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O36" t="n">
-        <v>964.0571555106362</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P36" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
@@ -7041,25 +7041,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S36" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T36" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U36" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V36" t="n">
-        <v>454.3181732824481</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W36" t="n">
-        <v>454.3181732824481</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X36" t="n">
-        <v>454.3181732824481</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y36" t="n">
-        <v>454.3181732824481</v>
+        <v>817.4100647040152</v>
       </c>
     </row>
     <row r="37">
@@ -7135,7 +7135,7 @@
         <v>964.0571555106362</v>
       </c>
       <c r="X37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y37" t="n">
         <v>829.5248650203655</v>
@@ -7148,31 +7148,31 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>231.8830517671884</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C38" t="n">
-        <v>231.8830517671884</v>
+        <v>749.627473042513</v>
       </c>
       <c r="D38" t="n">
-        <v>231.8830517671884</v>
+        <v>749.627473042513</v>
       </c>
       <c r="E38" t="n">
-        <v>231.8830517671884</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F38" t="n">
-        <v>231.8830517671884</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="G38" t="n">
-        <v>231.8830517671884</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H38" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I38" t="n">
-        <v>19.28114311021275</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J38" t="n">
-        <v>19.28114311021275</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K38" t="n">
         <v>122.2961490211351</v>
@@ -7202,22 +7202,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T38" t="n">
-        <v>962.2293816994886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U38" t="n">
-        <v>718.7806050553886</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V38" t="n">
-        <v>475.3318284112885</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W38" t="n">
-        <v>231.8830517671884</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X38" t="n">
-        <v>231.8830517671884</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y38" t="n">
-        <v>231.8830517671884</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="39">
@@ -7254,49 +7254,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>234.810827406191</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>234.810827406191</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N39" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O39" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P39" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>928.2922408909005</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>928.2922408909005</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>726.1056462496665</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U39" t="n">
-        <v>497.8820279860555</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V39" t="n">
-        <v>262.7299197543128</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W39" t="n">
-        <v>19.28114311021272</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X39" t="n">
-        <v>19.28114311021272</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="Y39" t="n">
-        <v>19.28114311021272</v>
+        <v>69.84447166430675</v>
       </c>
     </row>
     <row r="40">
@@ -7363,16 +7363,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y40" t="n">
         <v>19.28114311021272</v>
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C41" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D41" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E41" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F41" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G41" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H41" t="n">
         <v>19.28114311021272</v>
@@ -7445,16 +7445,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V41" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W41" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X41" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y41" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="42">
@@ -7464,25 +7464,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>487.2836868729568</v>
+        <v>343.4227147053767</v>
       </c>
       <c r="C42" t="n">
-        <v>487.2836868729568</v>
+        <v>168.9696854242497</v>
       </c>
       <c r="D42" t="n">
-        <v>487.2836868729568</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E42" t="n">
-        <v>487.2836868729568</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F42" t="n">
-        <v>340.7491288998418</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G42" t="n">
-        <v>202.0183034824573</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H42" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I42" t="n">
         <v>20.03527576299844</v>
@@ -7494,46 +7494,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L42" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M42" t="n">
-        <v>257.8852890990952</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N42" t="n">
-        <v>496.4894350879777</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O42" t="n">
-        <v>735.0935810768601</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P42" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q42" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R42" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S42" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T42" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U42" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V42" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W42" t="n">
-        <v>487.2836868729568</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X42" t="n">
-        <v>487.2836868729568</v>
+        <v>719.3983504903987</v>
       </c>
       <c r="Y42" t="n">
-        <v>487.2836868729568</v>
+        <v>511.6380517254448</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L43" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M43" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N43" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="44">
@@ -7622,28 +7622,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>274.0360370837871</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C44" t="n">
-        <v>274.0360370837871</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D44" t="n">
-        <v>274.0360370837871</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E44" t="n">
-        <v>274.0360370837871</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F44" t="n">
-        <v>274.0360370837871</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G44" t="n">
-        <v>30.58726043968704</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H44" t="n">
-        <v>30.58726043968704</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I44" t="n">
-        <v>30.58726043968704</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J44" t="n">
         <v>19.28114311021272</v>
@@ -7667,31 +7667,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R44" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S44" t="n">
-        <v>742.8341567219593</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T44" t="n">
-        <v>517.4848137278872</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U44" t="n">
-        <v>274.0360370837871</v>
+        <v>495.259035872464</v>
       </c>
       <c r="V44" t="n">
-        <v>274.0360370837871</v>
+        <v>251.810259228364</v>
       </c>
       <c r="W44" t="n">
-        <v>274.0360370837871</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X44" t="n">
-        <v>274.0360370837871</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y44" t="n">
-        <v>274.0360370837871</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="45">
@@ -7701,46 +7701,46 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>102.8099852548154</v>
+        <v>567.60420440717</v>
       </c>
       <c r="C45" t="n">
-        <v>102.8099852548154</v>
+        <v>567.60420440717</v>
       </c>
       <c r="D45" t="n">
-        <v>102.8099852548154</v>
+        <v>418.6697947459187</v>
       </c>
       <c r="E45" t="n">
-        <v>102.8099852548154</v>
+        <v>418.6697947459187</v>
       </c>
       <c r="F45" t="n">
-        <v>102.8099852548154</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="G45" t="n">
-        <v>102.8099852548154</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J45" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L45" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M45" t="n">
-        <v>257.8852890990952</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N45" t="n">
-        <v>496.4894350879777</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O45" t="n">
-        <v>735.0935810768601</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="P45" t="n">
         <v>894.6625969973069</v>
@@ -7749,28 +7749,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S45" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T45" t="n">
-        <v>761.8705608694022</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U45" t="n">
-        <v>761.8705608694022</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V45" t="n">
-        <v>761.8705608694022</v>
+        <v>811.0529810512701</v>
       </c>
       <c r="W45" t="n">
-        <v>518.4217842253022</v>
+        <v>567.60420440717</v>
       </c>
       <c r="X45" t="n">
-        <v>310.5702840197694</v>
+        <v>567.60420440717</v>
       </c>
       <c r="Y45" t="n">
-        <v>102.8099852548154</v>
+        <v>567.60420440717</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L46" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M46" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N46" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
   </sheetData>
@@ -8061,16 +8061,16 @@
         <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>356.2611315939937</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>383.6105333221035</v>
+        <v>360.302996258564</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8301,7 +8301,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
         <v>131.3417120833333</v>
@@ -8310,10 +8310,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>177.2597568922521</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,7 +8532,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8544,13 +8544,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>185.8815939223662</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P9" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8769,25 +8769,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N12" t="n">
-        <v>231.1529892133073</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O12" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9012,19 +9012,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N15" t="n">
-        <v>301.2485028631349</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9243,25 +9243,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>383.1483227996774</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N18" t="n">
-        <v>244.7225752110828</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9480,16 +9480,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N21" t="n">
-        <v>231.1529892133073</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
@@ -9717,19 +9717,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>193.3577389147212</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N24" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
@@ -9875,7 +9875,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
@@ -9954,22 +9954,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>312.0431814381598</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O27" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10191,25 +10191,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>186.8580120236956</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
-        <v>383.6105333221035</v>
+        <v>233.6791982203443</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10428,19 +10428,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>301.248502863135</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
-        <v>383.6105333221035</v>
+        <v>198.1125443848066</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
@@ -10668,7 +10668,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
         <v>383.1483227996774</v>
@@ -10677,13 +10677,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>382.6009056104135</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>295.1552315763977</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10902,16 +10902,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>356.2611315939937</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
@@ -10920,7 +10920,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11142,10 +11142,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>383.1483227996774</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N42" t="n">
         <v>372.3560009609923</v>
@@ -11154,10 +11154,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P42" t="n">
-        <v>295.1552315763977</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11297,7 +11297,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11376,13 +11376,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
         <v>372.3560009609923</v>
@@ -11391,7 +11391,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
-        <v>295.1552315763977</v>
+        <v>177.2597568922521</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -22544,7 +22544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>180.4391552345834</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -22589,7 +22589,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
@@ -22601,16 +22601,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>39.0602672643945</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W2" t="n">
         <v>108.226679839754</v>
       </c>
       <c r="X2" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>145.2236497783945</v>
@@ -22626,7 +22626,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -22647,7 +22647,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22677,16 +22677,16 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>68.76672313002635</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>67.81068582972321</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -22723,13 +22723,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22744,13 +22744,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -22781,7 +22781,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -22799,10 +22799,10 @@
         <v>415.302737515135</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -22826,16 +22826,16 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>108.137662477717</v>
       </c>
       <c r="U5" t="n">
         <v>251.3456529078365</v>
@@ -22844,13 +22844,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>136.955583073971</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22860,16 +22860,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -22908,28 +22908,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>181.0093103331061</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>122.6508037197627</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22942,7 +22942,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>56.32934533914265</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -22966,7 +22966,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22981,7 +22981,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>86.16204325169439</v>
@@ -23008,7 +23008,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>88.11912650183325</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -23018,31 +23018,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>152.9875061275654</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F8" t="n">
-        <v>185.9922493601736</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23063,7 +23063,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
@@ -23087,7 +23087,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="9">
@@ -23103,13 +23103,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>26.23646281822218</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>23.64930719662976</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -23118,7 +23118,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23148,10 +23148,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
@@ -23163,7 +23163,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -23191,19 +23191,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>34.80401177309074</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -23312,16 +23312,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W11" t="n">
-        <v>136.955583073971</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>128.71681180081</v>
+        <v>157.4457150350269</v>
       </c>
       <c r="Y11" t="n">
         <v>145.2236497783945</v>
@@ -23337,28 +23337,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>12.94441648182315</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>26.5151993764422</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23382,16 +23382,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -23458,10 +23458,10 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>177.2933913771695</v>
+        <v>132.9899077786023</v>
       </c>
       <c r="S13" t="n">
         <v>224.0165980369723</v>
@@ -23479,7 +23479,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>95.24412853877561</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23498,19 +23498,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>415.302737515135</v>
+        <v>213.0080510862378</v>
       </c>
       <c r="H14" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I14" t="n">
         <v>210.4758895704059</v>
@@ -23537,7 +23537,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>149.8691179411497</v>
@@ -23546,16 +23546,16 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>10.81046392068936</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -23577,22 +23577,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
         <v>0.7465913262578567</v>
@@ -23622,16 +23622,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>1.436623854337228</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>119.479593085089</v>
       </c>
       <c r="W15" t="n">
         <v>251.6949831609196</v>
@@ -23671,13 +23671,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>133.416483154574</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
         <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>177.2933913771695</v>
+        <v>132.9899077786023</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23744,7 +23744,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
         <v>339.4748021157671</v>
@@ -23774,28 +23774,28 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>10.33136403017744</v>
+        <v>181.0016451065613</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W17" t="n">
         <v>108.226679839754</v>
       </c>
       <c r="X17" t="n">
-        <v>157.4457150350269</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -23811,25 +23811,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>127.4196248553433</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23859,19 +23859,19 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>247.8610253924609</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -23944,7 +23944,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23953,7 +23953,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23966,7 +23966,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -23981,16 +23981,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H20" t="n">
-        <v>331.6961560838159</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24014,25 +24014,25 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>148.0596218681135</v>
       </c>
       <c r="S20" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24048,7 +24048,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
@@ -24066,10 +24066,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>58.53507313700862</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24093,13 +24093,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>74.94203846847478</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -24114,7 +24114,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24127,7 +24127,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325981</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24181,7 +24181,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U22" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24203,7 +24203,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24212,22 +24212,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>165.8617568640524</v>
       </c>
       <c r="G23" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I23" t="n">
-        <v>210.4758895704059</v>
+        <v>10.13979328157632</v>
       </c>
       <c r="J23" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24248,7 +24248,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
         <v>149.8691179411497</v>
@@ -24260,7 +24260,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>49.05096647893927</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -24282,7 +24282,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
@@ -24291,13 +24291,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>109.8363137383463</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
         <v>112.2354442364965</v>
@@ -24333,22 +24333,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>52.90669720804129</v>
       </c>
       <c r="W24" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -24403,10 +24403,10 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>177.2933913771695</v>
@@ -24415,10 +24415,10 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T25" t="n">
-        <v>97.48006257801995</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U25" t="n">
-        <v>286.3190293564909</v>
+        <v>239.2941050228172</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24443,10 +24443,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>152.3883551917857</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -24458,7 +24458,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
         <v>210.4758895704059</v>
@@ -24485,7 +24485,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>149.8691179411497</v>
@@ -24503,13 +24503,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X26" t="n">
         <v>128.71681180081</v>
       </c>
       <c r="Y26" t="n">
-        <v>173.9525530126115</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="27">
@@ -24519,22 +24519,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>136.7341746849847</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>112.2354442364965</v>
@@ -24543,7 +24543,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24570,25 +24570,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>45.35050004052974</v>
       </c>
     </row>
     <row r="28">
@@ -24607,7 +24607,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120118</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24658,7 +24658,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V28" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24689,13 +24689,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I29" t="n">
         <v>210.4758895704059</v>
@@ -24722,7 +24722,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
         <v>149.8691179411497</v>
@@ -24731,13 +24731,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>20.80116313523413</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -24759,7 +24759,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -24768,7 +24768,7 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>137.3435171632106</v>
@@ -24804,10 +24804,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>13.81877842727323</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
         <v>200.1647286948216</v>
@@ -24825,7 +24825,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>59.75548455249168</v>
       </c>
     </row>
     <row r="31">
@@ -24889,7 +24889,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T31" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U31" t="n">
         <v>286.3190293564909</v>
@@ -24898,7 +24898,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24917,19 +24917,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>152.9875061275656</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G32" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H32" t="n">
         <v>339.4748021157671</v>
@@ -24968,19 +24968,19 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>10.81046392068936</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -24999,13 +24999,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
         <v>137.3435171632106</v>
@@ -25041,25 +25041,25 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>75.81430501922097</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>136.2759056302995</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -25117,7 +25117,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
         <v>177.2933913771695</v>
@@ -25126,7 +25126,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T34" t="n">
-        <v>180.9206650946078</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U34" t="n">
         <v>286.3190293564909</v>
@@ -25141,7 +25141,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>85.3976857667268</v>
       </c>
     </row>
     <row r="35">
@@ -25157,7 +25157,7 @@
         <v>124.2586028933485</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -25172,10 +25172,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>10.13979328157633</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25214,10 +25214,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>136.955583073971</v>
       </c>
       <c r="X35" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25230,7 +25230,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>56.00008833230882</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -25239,10 +25239,10 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>137.3435171632106</v>
@@ -25254,7 +25254,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25281,7 +25281,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
         <v>200.1647286948216</v>
@@ -25290,7 +25290,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
         <v>251.6949831609196</v>
@@ -25299,7 +25299,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>160.6599100313927</v>
       </c>
     </row>
     <row r="37">
@@ -25375,10 +25375,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>92.52268780366916</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>85.3976857667268</v>
       </c>
     </row>
     <row r="38">
@@ -25397,19 +25397,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H38" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
         <v>11.94928935461252</v>
@@ -25442,16 +25442,16 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>221.2863534910952</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
-        <v>10.33136403017744</v>
+        <v>39.0602672643945</v>
       </c>
       <c r="V38" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -25467,7 +25467,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>116.4754883813142</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
@@ -25515,16 +25515,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>64.7505686791048</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -25533,10 +25533,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25603,7 +25603,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U40" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25615,7 +25615,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>85.39768576672677</v>
       </c>
     </row>
     <row r="41">
@@ -25628,7 +25628,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -25637,13 +25637,13 @@
         <v>140.9160811946027</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G41" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
-        <v>127.189416472325</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I41" t="n">
         <v>210.4758895704059</v>
@@ -25685,10 +25685,10 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
-        <v>86.73796959247585</v>
+        <v>115.4668728266929</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -25704,28 +25704,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>21.46887964564725</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25752,13 +25752,13 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
         <v>225.9413820809748</v>
@@ -25767,13 +25767,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>204.5750571111013</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25792,7 +25792,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>13.24699506120118</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25840,7 +25840,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25877,7 +25877,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
         <v>339.4748021157671</v>
@@ -25886,7 +25886,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>0.7562331984329429</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25907,13 +25907,13 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -25922,10 +25922,10 @@
         <v>10.33136403017744</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>119.0371437604433</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -25947,25 +25947,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>29.54189051333978</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25989,28 +25989,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>181.484288587296</v>
       </c>
       <c r="W45" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>465249.8830877312</v>
+        <v>465249.8830877309</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>465249.8830877311</v>
+        <v>465249.8830877309</v>
       </c>
     </row>
     <row r="5">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>465249.8830877309</v>
+        <v>465249.8830877311</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>465249.8830877309</v>
+        <v>465249.8830877311</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>465249.8830877311</v>
+        <v>465249.8830877309</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>465249.8830877308</v>
+        <v>465249.8830877309</v>
       </c>
     </row>
     <row r="13">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>465249.8830877309</v>
+        <v>465249.8830877308</v>
       </c>
     </row>
   </sheetData>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>116312.4707719327</v>
+        <v>116312.4707719326</v>
       </c>
       <c r="C2" t="n">
         <v>116312.4707719327</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154773</v>
+        <v>80769.43153154774</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3448.117877250231</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="C4" t="n">
-        <v>3448.117877250231</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="D4" t="n">
-        <v>3448.11787725023</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="E4" t="n">
-        <v>3448.11787725023</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="F4" t="n">
-        <v>3448.117877250231</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="G4" t="n">
-        <v>3448.11787725023</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="H4" t="n">
-        <v>3448.11787725023</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="I4" t="n">
-        <v>3448.117877250231</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="J4" t="n">
-        <v>3448.117877250231</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="K4" t="n">
-        <v>3448.117877250231</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="L4" t="n">
-        <v>3448.117877250231</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="M4" t="n">
-        <v>3448.117877250231</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="N4" t="n">
-        <v>3448.117877250231</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="O4" t="n">
-        <v>3448.117877250231</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="P4" t="n">
-        <v>3448.117877250231</v>
+        <v>179.5324977039669</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-16186.34740062696</v>
+        <v>-12917.76202108074</v>
       </c>
       <c r="C6" t="n">
-        <v>64583.08413092077</v>
+        <v>67851.66951046707</v>
       </c>
       <c r="D6" t="n">
-        <v>64583.08413092081</v>
+        <v>67851.66951046705</v>
       </c>
       <c r="E6" t="n">
-        <v>98210.68413092077</v>
+        <v>101479.269510467</v>
       </c>
       <c r="F6" t="n">
-        <v>98210.68413092077</v>
+        <v>101479.269510467</v>
       </c>
       <c r="G6" t="n">
-        <v>98210.68413092077</v>
+        <v>101479.2695104671</v>
       </c>
       <c r="H6" t="n">
-        <v>98210.68413092081</v>
+        <v>101479.2695104671</v>
       </c>
       <c r="I6" t="n">
-        <v>98210.68413092075</v>
+        <v>101479.269510467</v>
       </c>
       <c r="J6" t="n">
-        <v>35150.74153181456</v>
+        <v>38419.32691136082</v>
       </c>
       <c r="K6" t="n">
-        <v>98210.68413092075</v>
+        <v>101479.269510467</v>
       </c>
       <c r="L6" t="n">
-        <v>98210.68413092077</v>
+        <v>101479.269510467</v>
       </c>
       <c r="M6" t="n">
-        <v>98210.68413092077</v>
+        <v>101479.2695104671</v>
       </c>
       <c r="N6" t="n">
-        <v>98210.68413092078</v>
+        <v>101479.269510467</v>
       </c>
       <c r="O6" t="n">
-        <v>98210.68413092078</v>
+        <v>101479.269510467</v>
       </c>
       <c r="P6" t="n">
-        <v>98210.68413092078</v>
+        <v>101479.2695104671</v>
       </c>
     </row>
   </sheetData>
@@ -34705,7 +34705,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N2" t="n">
         <v>207.9338608153932</v>
@@ -34781,16 +34781,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>217.7067518141195</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>241.0142888776591</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="P3" t="n">
         <v>184.4883612256069</v>
@@ -34942,10 +34942,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N5" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O5" t="n">
         <v>150.7019698410586</v>
@@ -35021,7 +35021,7 @@
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -35030,10 +35030,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35252,7 +35252,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>232.285965523585</v>
@@ -35264,13 +35264,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>43.28534947792182</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35489,25 +35489,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="N12" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O12" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P12" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35732,19 +35732,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
+        <v>99.81127712997396</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N15" t="n">
-        <v>169.9067907798016</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35963,25 +35963,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
+        <v>217.7067518141195</v>
+      </c>
+      <c r="N18" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N18" t="n">
-        <v>113.3808631277494</v>
       </c>
       <c r="O18" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36200,16 +36200,16 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N21" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
@@ -36437,19 +36437,19 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>55.51629994036225</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N24" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>184.4883612256069</v>
@@ -36674,22 +36674,22 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>169.9091475161415</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
         <v>70.09551364982758</v>
@@ -36844,7 +36844,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O29" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P29" t="n">
         <v>90.5657124162131</v>
@@ -36911,25 +36911,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>55.51629994036225</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
-        <v>241.0142888776591</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="P30" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37148,19 +37148,19 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036219</v>
       </c>
       <c r="P33" t="n">
         <v>184.4883612256069</v>
@@ -37312,7 +37312,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M35" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N35" t="n">
         <v>207.9338608153932</v>
@@ -37388,7 +37388,7 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>241.0142888776591</v>
@@ -37397,13 +37397,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>161.1808241620674</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37622,16 +37622,16 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>217.7067518141195</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
@@ -37640,7 +37640,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37862,10 +37862,10 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="N42" t="n">
         <v>241.0142888776591</v>
@@ -37874,10 +37874,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P42" t="n">
-        <v>161.1808241620674</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38023,7 +38023,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N44" t="n">
         <v>207.9338608153932</v>
@@ -38096,13 +38096,13 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>241.0142888776591</v>
@@ -38111,7 +38111,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P45" t="n">
-        <v>161.1808241620674</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="Q45" t="n">
         <v>70.09551364982758</v>
